--- a/Genes2Emx_appender_v2/files/geneData.xlsx
+++ b/Genes2Emx_appender_v2/files/geneData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="attributes" sheetId="1" r:id="rId1"/>
@@ -35917,7 +35917,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -36085,7 +36085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2906"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1398" workbookViewId="0">
+      <selection activeCell="A1413" sqref="A1413"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
